--- a/canada/2.british-columbia/burnaby/9-bc-auto-lube.xlsx
+++ b/canada/2.british-columbia/burnaby/9-bc-auto-lube.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="772">
   <si>
     <t>Business URL</t>
   </si>
@@ -250,6 +250,216 @@
     <t>https://www.bbb.org/ca/bc/surrey/profile/auto-repair/ocean-park-automotive-0037-124566</t>
   </si>
   <si>
+    <t>https://www.bbb.org/ca/bc/burnaby/profile/new-car-dealers/coastal-ford-sales-limited-0037-114822</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/burnaby/profile/auto-repair/bill-walters-garage-ltd-0037-146093</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/courtenay/profile/auto-repair/ok-tire-courtenay-0047-225112378</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/penticton/profile/auto-lube/great-canadian-oil-change-0037-1265100</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/duncan/profile/new-car-dealers/island-chevrolet-buick-gmc-0047-15174</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/auto-repair/g-s-auto-care-ltd-0037-1298966</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/coquitlam/profile/auto-body-repair-and-painting/mountain-hwy-collision-glass-0037-119343</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/north-vancouver/profile/auto-services/taylormotive-service-ltd-0037-111493</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-repair/dericks-automotive-services-ltd-0047-2961</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-repair/visscher-pau-automotive-ltd-0037-1292359</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/port-moody/profile/auto-lube/mobil-1-lube-express-port-moody-0037-1277054</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-repair/cedar-hill-automotive-services-0047-7404</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/courtenay/profile/auto-services/kean-auto-service-0047-1082202</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-repair/trackside-auto-service-ltd-0047-234008677</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/rebuilt-engines/canada-engines-ltd-0037-112358</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/coquitlam/profile/auto-lube/great-canadian-oil-change-0037-1301714</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/qualicum-beach/profile/auto-repair/arrowsmith-automotive-towing-ltd-0047-14322</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/kamloops/profile/transmission/b-m-transmission-and-car-care-centre-0037-1276899</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/west-kelowna/profile/auto-lube/mr-lube-0037-1299059</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/cobble-hill/profile/auto-repair/jicklings-automotive-service-0047-90013929</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/ladysmith/profile/auto-repair/frank-laird-automotive-0047-2874</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/parksville/profile/oil-change/great-canadian-oil-change-0047-33852</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/burnaby/profile/auto-repair/big-o-tires-burnaby-0037-112790</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/langley/profile/auto-lube/mobil-1-lube-express-0037-1265043</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/duncan/profile/auto-repair/revved-up-automotive-offroad-0047-1082173</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/aldergrove/profile/auto-repair/budget-brake-muffler-auto-centres-aldergrove-0037-1142549</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/delta/profile/auto-repair/ladner-motors-ltd-0037-175315</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/burnaby/profile/auto-repair/ac-automotive-0037-1300643</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/burnaby/profile/auto-maintenance/the-speed-syndicate-0037-1290544</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/transmission/aamco-transmissions-0037-102081</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/abbotsford/profile/auto-repair/ernies-golden-automotive-0037-1355077</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/kamloops/profile/auto-lube/great-canadian-oil-change-0037-1265983</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/abbotsford/profile/auto-lube/mobil-1-lube-express-0037-1298923</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-repair/millars-automotive-0047-1067735</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/saanichton/profile/auto-repair/ok-tire-saanichton-0047-90005872</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/nanaimo/profile/new-car-dealers/laird-wheaton-0047-1063747</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/abbotsford/profile/auto-repair/bobs-repairs-0037-146688</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/langley/profile/auto-maintenance/intricate-mindz-auto-design-0037-1275919</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/penticton/profile/auto-repair/integrity-auto-repair-ltd-0037-1272110</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-repair/parkside-motors-ltd-0047-802</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/qualicum-beach/profile/auto-repair/chucks-automotive-0047-204154734</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/langley/profile/auto-lube/tirecraft-0037-1299625</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/langley/profile/auto-repair/fernridge-automotive-0037-112217</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-lube/mr-lube-0037-1299057</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/abbotsford/profile/auto-repair/abbymac-auto-marine-ltd-0037-1366806</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-repair/golden-touch-auto-centre-0037-165222</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/courtenay/profile/new-car-dealers/courtenay-nissan-0047-10111</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/west-vancouver/profile/tire-dealers/o-k-tire-auto-service-0037-220914</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/lube-service/mr-lube-0037-2402968</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-repair/searles-auto-repairs-co-ltd-0047-170</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-repair/affordable-auto-repairs-and-maintenance-0047-231215431</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/cobble-hill/profile/auto-repair/ian-tait-mechanical-services-0047-163746990</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/nanaimo/profile/tire-dealers/fountain-tire-nanaimo-0047-3758</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/courtenay/profile/new-car-dealers/comox-valley-toyota-0047-2067</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/courtenay/profile/lube-service/jiffy-lube-courtenay-0047-17806</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/richmond/profile/auto-repair/express-lube-and-tune-centre-0037-106859</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/nanaimo/profile/auto-repair/mid-island-automotive-repairs-ltd-0047-5184</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/duncan/profile/auto-lube/valvoline-express-care-duncan-0047-90011360</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/duncan/profile/auto-repair/dickson-fraser-auto-repairs-0047-12098</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-maintenance/rg-diagnostics-0037-1272706</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/new-westminster/profile/transmission/aa-transmission-ltd-0037-1259248</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/langley/profile/auto-maintenance/auto-fierce-automotive-0037-1266298</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/sidney/profile/transmission/sidney-transmission-auto-care-0047-90004419</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/duncan/profile/auto-repair/cowichan-auto-repair-and-detailing-0047-90011697</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-services/glen-lake-automotive-centre-0047-1366</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/tire-dealers/big-o-tires-victoria-0047-2449</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/maple-ridge/profile/auto-repair/start-automotive-inc-0037-198309</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/oil-change/great-canadian-oil-change-0047-194138812</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-lube/jiffy-lube-victoria-0047-90012591</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/auto-lube/mr-lube-0037-1299056</t>
+  </si>
+  <si>
     <t>Giants Head Auto Repair</t>
   </si>
   <si>
@@ -452,6 +662,186 @@
   </si>
   <si>
     <t>Ocean Park Automotive</t>
+  </si>
+  <si>
+    <t>Coastal Ford Sales Limited</t>
+  </si>
+  <si>
+    <t>Bill &amp; Walter's Garage Ltd.</t>
+  </si>
+  <si>
+    <t>OK Tire - Courtenay</t>
+  </si>
+  <si>
+    <t>Island Chevrolet Buick GMC</t>
+  </si>
+  <si>
+    <t>G &amp; S Auto Care Ltd.</t>
+  </si>
+  <si>
+    <t>Mountain Hwy. Collision &amp; Glass</t>
+  </si>
+  <si>
+    <t>Taylormotive Service Ltd.</t>
+  </si>
+  <si>
+    <t>Derick's Automotive Services Ltd.</t>
+  </si>
+  <si>
+    <t>Visscher-Pau Automotive Ltd.</t>
+  </si>
+  <si>
+    <t>Mobil 1 Lube Express Port Moody</t>
+  </si>
+  <si>
+    <t>Cedar Hill Automotive Services</t>
+  </si>
+  <si>
+    <t>Kean Auto Service</t>
+  </si>
+  <si>
+    <t>Trackside Auto Service Ltd.</t>
+  </si>
+  <si>
+    <t>Canada Engines Ltd.</t>
+  </si>
+  <si>
+    <t>Arrowsmith Automotive &amp; Towing Ltd.</t>
+  </si>
+  <si>
+    <t>B &amp; M Transmission and Car Care Centre</t>
+  </si>
+  <si>
+    <t>Jickling's Automotive Service</t>
+  </si>
+  <si>
+    <t>Frank Laird Automotive</t>
+  </si>
+  <si>
+    <t>Big O Tires Burnaby</t>
+  </si>
+  <si>
+    <t>Revved Up Automotive &amp; Offroad</t>
+  </si>
+  <si>
+    <t>Budget Brake &amp; Muffler Auto Centres Aldergrove</t>
+  </si>
+  <si>
+    <t>Ladner Motors Ltd</t>
+  </si>
+  <si>
+    <t>A&amp;C Automotive</t>
+  </si>
+  <si>
+    <t>The Speed Syndicate</t>
+  </si>
+  <si>
+    <t>Aamco Transmissions</t>
+  </si>
+  <si>
+    <t>Ernies Golden Automotive</t>
+  </si>
+  <si>
+    <t>Millar's Automotive</t>
+  </si>
+  <si>
+    <t>OK Tire - Saanichton</t>
+  </si>
+  <si>
+    <t>Laird Wheaton</t>
+  </si>
+  <si>
+    <t>Bob's Repairs</t>
+  </si>
+  <si>
+    <t>Intricate Mindz Auto Design</t>
+  </si>
+  <si>
+    <t>Integrity Auto Repair Ltd.</t>
+  </si>
+  <si>
+    <t>Parkside Motors Ltd.</t>
+  </si>
+  <si>
+    <t>Chuck's Automotive</t>
+  </si>
+  <si>
+    <t>Tirecraft</t>
+  </si>
+  <si>
+    <t>Fernridge Automotive</t>
+  </si>
+  <si>
+    <t>AbbyMac Auto Marine Ltd.</t>
+  </si>
+  <si>
+    <t>Golden Touch Auto Centre</t>
+  </si>
+  <si>
+    <t>Courtenay Nissan</t>
+  </si>
+  <si>
+    <t>O K Tire &amp; Auto Service</t>
+  </si>
+  <si>
+    <t>Mr. Lube</t>
+  </si>
+  <si>
+    <t>Searle's Auto Repairs Co. Ltd.</t>
+  </si>
+  <si>
+    <t>Affordable Auto Repairs and Maintenance</t>
+  </si>
+  <si>
+    <t>Ian Tait Mechanical Services</t>
+  </si>
+  <si>
+    <t>Fountain Tire - Nanaimo</t>
+  </si>
+  <si>
+    <t>Comox Valley Toyota</t>
+  </si>
+  <si>
+    <t>Jiffy Lube - Courtenay</t>
+  </si>
+  <si>
+    <t>Express Lube And Tune Centre</t>
+  </si>
+  <si>
+    <t>Mid Island Automotive Repairs Ltd.</t>
+  </si>
+  <si>
+    <t>Valvoline Express Care Duncan</t>
+  </si>
+  <si>
+    <t>Dickson &amp; Fraser Auto Repairs</t>
+  </si>
+  <si>
+    <t>RG Diagnostics</t>
+  </si>
+  <si>
+    <t>A&amp;A Transmission Ltd.</t>
+  </si>
+  <si>
+    <t>Auto Fierce Automotive</t>
+  </si>
+  <si>
+    <t>Sidney Transmission &amp; Auto Care</t>
+  </si>
+  <si>
+    <t>Cowichan Auto Repair and Detailing</t>
+  </si>
+  <si>
+    <t>Glen Lake Automotive Centre</t>
+  </si>
+  <si>
+    <t>Big O Tires Victoria</t>
+  </si>
+  <si>
+    <t>Start Automotive Inc.</t>
+  </si>
+  <si>
+    <t>Jiffy Lube - Victoria</t>
   </si>
   <si>
     <t>106 15803 Logei Road
@@ -730,6 +1120,285 @@
 Surrey, BC V4P 1B6</t>
   </si>
   <si>
+    <t>5750 Lougheed Hwy
+Burnaby, BC V5B 2Z9</t>
+  </si>
+  <si>
+    <t>4406 Dawson St
+Burnaby, BC V5C 4B9</t>
+  </si>
+  <si>
+    <t>2995 Moray Ave
+Courtenay, BC V9N 7S7</t>
+  </si>
+  <si>
+    <t>1801 Main St
+Penticton, BC V2A 5H2</t>
+  </si>
+  <si>
+    <t>6300 Trans Canada Hwy
+Duncan, BC V9L 0C1</t>
+  </si>
+  <si>
+    <t>8826 Laurel St
+Vancouver, BC V6P 3V8</t>
+  </si>
+  <si>
+    <t>1 2760 Aberdeen Ave
+Coquitlam, BC V3B 1A3</t>
+  </si>
+  <si>
+    <t>174 Pemberton Ave
+North Vancouver, BC V7P 2R5</t>
+  </si>
+  <si>
+    <t>638 John St
+Victoria, BC V8T 1T9</t>
+  </si>
+  <si>
+    <t>6455 176 St
+Surrey, BC V3S 4G4</t>
+  </si>
+  <si>
+    <t>3020 St. Johns Street
+Port Moody, BC V3H 2C5</t>
+  </si>
+  <si>
+    <t>3030 Nanaimo St
+Victoria, BC V8T 4Z1</t>
+  </si>
+  <si>
+    <t>754B 29th St
+Courtenay, BC V9N 7S7</t>
+  </si>
+  <si>
+    <t>784 Fairview Rd
+Victoria, BC V9A 5V1</t>
+  </si>
+  <si>
+    <t>12345 114 Ave
+Surrey, BC V3V 3N6</t>
+  </si>
+  <si>
+    <t>#888 - 100 Schoolhouse Street
+Coquitlam, BC V3K 6V9</t>
+  </si>
+  <si>
+    <t>20 Hilliers Rd
+Qualicum Beach, BC V9K 1X4</t>
+  </si>
+  <si>
+    <t>1400 Battle St
+Kamloops, BC V2C 2N8</t>
+  </si>
+  <si>
+    <t>2423 Dobbin Rd
+West Kelowna, BC V4T 1K7</t>
+  </si>
+  <si>
+    <t>4-3740 Trans-Canada Hwy
+Cobble Hill, BC V0R 1L2</t>
+  </si>
+  <si>
+    <t>1250 Rocky Creek Rd
+Ladysmith, BC V9G 1A5</t>
+  </si>
+  <si>
+    <t>449 Island Hwy E
+Parksville, BC V9P 2G5</t>
+  </si>
+  <si>
+    <t>7444 Edmonds St
+Burnaby, BC V3N 1A8</t>
+  </si>
+  <si>
+    <t>20010 64th Ave
+Langley, BC V2Y 1M7</t>
+  </si>
+  <si>
+    <t>5285 Polkey Rd.
+Duncan, BC V9L 6W3</t>
+  </si>
+  <si>
+    <t>1B 26361 Fraser Hwy
+Aldergrove, BC V4W 2Z7</t>
+  </si>
+  <si>
+    <t>4900 Delta St
+Delta, BC V4K 2V2</t>
+  </si>
+  <si>
+    <t>5412 Imperial St
+Burnaby, BC V5J 1E6</t>
+  </si>
+  <si>
+    <t>6879 Antrim Ave
+Burnaby, BC V5J 4M5</t>
+  </si>
+  <si>
+    <t>2750 Arbutus St
+Vancouver, BC V6J 3Y6</t>
+  </si>
+  <si>
+    <t>31580 South Fraser Way # 7
+Abbotsford, BC V2T 4C6</t>
+  </si>
+  <si>
+    <t>630 450 Landsdowne St
+Kamloops, BC V2C 1Y3</t>
+  </si>
+  <si>
+    <t>2474 West Railway St
+Abbotsford, BC V2S 2E5</t>
+  </si>
+  <si>
+    <t>4199 Stillmeadow Rd
+Victoria, BC V9C 4H8</t>
+  </si>
+  <si>
+    <t>6800 Oldfield Rd
+Saanichton, BC V8M 2A3</t>
+  </si>
+  <si>
+    <t>2590 Bowen Rd
+Nanaimo, BC V9T 3L3</t>
+  </si>
+  <si>
+    <t>101 33415 Maclure Rd
+Abbotsford, BC V2S 7W2</t>
+  </si>
+  <si>
+    <t>405 20540 Duncan Way
+Langley, BC V3A 7A3</t>
+  </si>
+  <si>
+    <t>103 2071 Government St
+Penticton, BC V2A 4W2</t>
+  </si>
+  <si>
+    <t>519 Ellice St
+Victoria, BC V8T 2G8</t>
+  </si>
+  <si>
+    <t>123 Fourth Ave E
+Qualicum Beach, BC V9K 1T1</t>
+  </si>
+  <si>
+    <t>26528 Gloucester Way
+Langley, BC V4W 3Z3</t>
+  </si>
+  <si>
+    <t>22339 48 Ave
+Langley, BC V3A 3N4</t>
+  </si>
+  <si>
+    <t>2299 King George Blvd
+Surrey, BC V4A 5A4</t>
+  </si>
+  <si>
+    <t>33166 S Fraser Way
+Abbotsford, BC V2S 2A8</t>
+  </si>
+  <si>
+    <t>13549 Bentley Rd
+Surrey, BC V3R 5B8</t>
+  </si>
+  <si>
+    <t>535 Silverdale Cres
+Courtenay, BC V9N 4B4</t>
+  </si>
+  <si>
+    <t>2196 Marine Dr
+West Vancouver, BC V7Y 4Y2</t>
+  </si>
+  <si>
+    <t>Vancouver, BC V6A 1S4</t>
+  </si>
+  <si>
+    <t>517 Kelvin Rd
+Victoria, BC V8Z 1C4</t>
+  </si>
+  <si>
+    <t>101 - 931 Dunford Ave
+Victoria, BC V9B 2S4</t>
+  </si>
+  <si>
+    <t>1480 Heigh St E
+Cobble Hill, BC V0R 1L0</t>
+  </si>
+  <si>
+    <t>#1 - 4801 Wellington Rd
+Nanaimo, BC V9T 2H5</t>
+  </si>
+  <si>
+    <t>445 Crown Isle Blvd
+Courtenay, BC V9N 9W1</t>
+  </si>
+  <si>
+    <t>581 Ryan Rd
+Courtenay, BC V9N 3R5</t>
+  </si>
+  <si>
+    <t>2840 No 3 Rd
+Richmond, BC V6X 2B3</t>
+  </si>
+  <si>
+    <t>3 - 2210 Wilgress Rd
+Nanaimo, BC V9S 4N4</t>
+  </si>
+  <si>
+    <t>2933 Drinkwater Rd
+Duncan, BC V9L 6C6</t>
+  </si>
+  <si>
+    <t>5237 Polkey Rd
+Duncan, BC V9L 6W3</t>
+  </si>
+  <si>
+    <t>34 15531 24 Ave
+Surrey, BC V4A 2J4</t>
+  </si>
+  <si>
+    <t>4 816 Boyd St
+New Westminster, BC V3M 6N1</t>
+  </si>
+  <si>
+    <t>103 20785 Langley Bypass
+Langley, BC V3A 5E8</t>
+  </si>
+  <si>
+    <t>#3 - 2051 Malaview Ave W
+Sidney, BC V8L 5X6</t>
+  </si>
+  <si>
+    <t>5275 Chaster Rd
+Duncan, BC V9L 5J2</t>
+  </si>
+  <si>
+    <t>1098 Goldstream Ave
+Victoria, BC V9B 2Y5</t>
+  </si>
+  <si>
+    <t>1319 Quadra St
+Victoria, BC V8W 2K9</t>
+  </si>
+  <si>
+    <t>11876 227 St
+Maple Ridge, BC V2X 6J1</t>
+  </si>
+  <si>
+    <t>872 Langford Pwy
+Victoria, BC V9B 2P3</t>
+  </si>
+  <si>
+    <t>708 Bay St
+Victoria, BC V8T 1R2</t>
+  </si>
+  <si>
+    <t>520 SW Marine Dr
+Vancouver, BC V5X 2T4</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/ghaservice</t>
   </si>
   <si>
@@ -934,6 +1603,207 @@
     <t>http://www.oceanparkauto.com/</t>
   </si>
   <si>
+    <t>http://www.coastalford.com/</t>
+  </si>
+  <si>
+    <t>https://bw-garage.com/</t>
+  </si>
+  <si>
+    <t>https://www.oktire.com/stores/ok-tire-courtenay/</t>
+  </si>
+  <si>
+    <t>tel:250-490-9191</t>
+  </si>
+  <si>
+    <t>http://www.islandgm.com/</t>
+  </si>
+  <si>
+    <t>http://www.gsautocare.ca/</t>
+  </si>
+  <si>
+    <t>https://mounthwycollision.com/</t>
+  </si>
+  <si>
+    <t>http://taylormotive.com/</t>
+  </si>
+  <si>
+    <t>https://www.dericksautomotive.ca/</t>
+  </si>
+  <si>
+    <t>http://visscherpauauto.com/</t>
+  </si>
+  <si>
+    <t>tel:604-492-1645</t>
+  </si>
+  <si>
+    <t>https://www.chas.mechanicnet.com/</t>
+  </si>
+  <si>
+    <t>https://www.keanauto.ca/</t>
+  </si>
+  <si>
+    <t>https://tracksideautoservice.ca/</t>
+  </si>
+  <si>
+    <t>http://canadaengines.com/</t>
+  </si>
+  <si>
+    <t>tel:604-525-5823</t>
+  </si>
+  <si>
+    <t>tel:250-752-1662</t>
+  </si>
+  <si>
+    <t>http://bmtrans.ca/</t>
+  </si>
+  <si>
+    <t>http://mrlube.com/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/JicklingsAutomotiveService</t>
+  </si>
+  <si>
+    <t>tel:250-245-5758</t>
+  </si>
+  <si>
+    <t>http://www.gcocltd.com/</t>
+  </si>
+  <si>
+    <t>tel:604-526-2912</t>
+  </si>
+  <si>
+    <t>http://www.langleymobil1.com/</t>
+  </si>
+  <si>
+    <t>tel:250-746-7176</t>
+  </si>
+  <si>
+    <t>http://budgetbrake.com/pages/stores/fraser-valley/aldergrove.php</t>
+  </si>
+  <si>
+    <t>https://www.ladnermotors.com/</t>
+  </si>
+  <si>
+    <t>https://acauto.ca/</t>
+  </si>
+  <si>
+    <t>http://www.thespeedsyndicate.com/</t>
+  </si>
+  <si>
+    <t>https://facebook.com/AAMCO</t>
+  </si>
+  <si>
+    <t>https://www.erniesgoldenautomotive.com/</t>
+  </si>
+  <si>
+    <t>http://www.greatcanadianoilchange.com/</t>
+  </si>
+  <si>
+    <t>tel:604-853-2770</t>
+  </si>
+  <si>
+    <t>https://millarsauto.ca/</t>
+  </si>
+  <si>
+    <t>https://www.lairdwheaton.com/</t>
+  </si>
+  <si>
+    <t>https://www.bobsrepairsabbotsford.com/</t>
+  </si>
+  <si>
+    <t>tel:778-710-4623</t>
+  </si>
+  <si>
+    <t>http://integrityautorepairltd.ca/</t>
+  </si>
+  <si>
+    <t>https://parksidemotors.ca/</t>
+  </si>
+  <si>
+    <t>https://chucksautomotive.ca/</t>
+  </si>
+  <si>
+    <t>http://www.tirecraft.com/</t>
+  </si>
+  <si>
+    <t>https://www.fernridgeautomotive.mechanicnet.com/</t>
+  </si>
+  <si>
+    <t>http://abbymacautomarine.com/</t>
+  </si>
+  <si>
+    <t>tel:604-582-1237</t>
+  </si>
+  <si>
+    <t>https://www.courtenaynissan.com/</t>
+  </si>
+  <si>
+    <t>tel:604-921-3304</t>
+  </si>
+  <si>
+    <t>tel:604-251-9855</t>
+  </si>
+  <si>
+    <t>http://searlesauto.ca/</t>
+  </si>
+  <si>
+    <t>https://affordablerepair.ca/</t>
+  </si>
+  <si>
+    <t>http://cobblehillmechanic.ca/</t>
+  </si>
+  <si>
+    <t>https://www.fountaintire.com/</t>
+  </si>
+  <si>
+    <t>https://www.comoxvalleytoyota.com/</t>
+  </si>
+  <si>
+    <t>https://jiffylubeservice.ca/</t>
+  </si>
+  <si>
+    <t>http://expresslubeandtune.com/</t>
+  </si>
+  <si>
+    <t>https://www.midislandautomotive.com/</t>
+  </si>
+  <si>
+    <t>https://locations.expresscare.com/bc/duncan/0000624999/?utm_source=Google&amp;utm_medium=Maps&amp;utm_campaign=Google+Places</t>
+  </si>
+  <si>
+    <t>tel:250-746-4652</t>
+  </si>
+  <si>
+    <t>http://rgdiagnostics.ca/</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/new-westminster/profile/transmission/aa-transmission-ltd-0037-1259248/email-this-business?email=primary</t>
+  </si>
+  <si>
+    <t>http://autofierce.com/</t>
+  </si>
+  <si>
+    <t>http://sidtrans.com/</t>
+  </si>
+  <si>
+    <t>https://www.cowichanautorepair.com/</t>
+  </si>
+  <si>
+    <t>https://www.shopvictoria.ca/glenlakeautomotive</t>
+  </si>
+  <si>
+    <t>https://www.bigotiresvictoria.com/</t>
+  </si>
+  <si>
+    <t>http://startautomotive.ca/</t>
+  </si>
+  <si>
+    <t>https://www.gcoc.ca/</t>
+  </si>
+  <si>
+    <t>http://jiffylubeservice.ca/</t>
+  </si>
+  <si>
     <t>12504945066</t>
   </si>
   <si>
@@ -1141,6 +2011,216 @@
     <t>16045314835</t>
   </si>
   <si>
+    <t>16042946525</t>
+  </si>
+  <si>
+    <t>16042983031</t>
+  </si>
+  <si>
+    <t>12503385695</t>
+  </si>
+  <si>
+    <t>12504909191</t>
+  </si>
+  <si>
+    <t>17785680701</t>
+  </si>
+  <si>
+    <t>16043277166</t>
+  </si>
+  <si>
+    <t>16049446000</t>
+  </si>
+  <si>
+    <t>16049857455</t>
+  </si>
+  <si>
+    <t>12503821314</t>
+  </si>
+  <si>
+    <t>16045769534</t>
+  </si>
+  <si>
+    <t>16044921645</t>
+  </si>
+  <si>
+    <t>12504721166</t>
+  </si>
+  <si>
+    <t>12508973643</t>
+  </si>
+  <si>
+    <t>12503835509</t>
+  </si>
+  <si>
+    <t>16045801050</t>
+  </si>
+  <si>
+    <t>16045255823</t>
+  </si>
+  <si>
+    <t>12507521662</t>
+  </si>
+  <si>
+    <t>12503744727</t>
+  </si>
+  <si>
+    <t>12507682022</t>
+  </si>
+  <si>
+    <t>17783563283</t>
+  </si>
+  <si>
+    <t>12502455758</t>
+  </si>
+  <si>
+    <t>12502480585</t>
+  </si>
+  <si>
+    <t>16045262912</t>
+  </si>
+  <si>
+    <t>16045305335</t>
+  </si>
+  <si>
+    <t>12507467176</t>
+  </si>
+  <si>
+    <t>16048533530</t>
+  </si>
+  <si>
+    <t>16049462617</t>
+  </si>
+  <si>
+    <t>16044384711</t>
+  </si>
+  <si>
+    <t>16045687795</t>
+  </si>
+  <si>
+    <t>16047318166</t>
+  </si>
+  <si>
+    <t>16047462610</t>
+  </si>
+  <si>
+    <t>12503141141</t>
+  </si>
+  <si>
+    <t>16048532770</t>
+  </si>
+  <si>
+    <t>12503910588</t>
+  </si>
+  <si>
+    <t>12505441489</t>
+  </si>
+  <si>
+    <t>12507582438</t>
+  </si>
+  <si>
+    <t>16048591879</t>
+  </si>
+  <si>
+    <t>17787104623</t>
+  </si>
+  <si>
+    <t>12504937575</t>
+  </si>
+  <si>
+    <t>12503821113</t>
+  </si>
+  <si>
+    <t>12507525822</t>
+  </si>
+  <si>
+    <t>16066070102</t>
+  </si>
+  <si>
+    <t>16045339291</t>
+  </si>
+  <si>
+    <t>16045606100</t>
+  </si>
+  <si>
+    <t>16048596609</t>
+  </si>
+  <si>
+    <t>16045821237</t>
+  </si>
+  <si>
+    <t>12503381988</t>
+  </si>
+  <si>
+    <t>16049213304</t>
+  </si>
+  <si>
+    <t>16042519855</t>
+  </si>
+  <si>
+    <t>12504752000</t>
+  </si>
+  <si>
+    <t>12502131959</t>
+  </si>
+  <si>
+    <t>12507438956</t>
+  </si>
+  <si>
+    <t>12507581508</t>
+  </si>
+  <si>
+    <t>18339610169</t>
+  </si>
+  <si>
+    <t>12503349969</t>
+  </si>
+  <si>
+    <t>16042781018</t>
+  </si>
+  <si>
+    <t>12363620333</t>
+  </si>
+  <si>
+    <t>12505972933</t>
+  </si>
+  <si>
+    <t>12507464652</t>
+  </si>
+  <si>
+    <t>16045367527</t>
+  </si>
+  <si>
+    <t>17783970810</t>
+  </si>
+  <si>
+    <t>16045335113</t>
+  </si>
+  <si>
+    <t>12506553707</t>
+  </si>
+  <si>
+    <t>17784223100</t>
+  </si>
+  <si>
+    <t>12504743535</t>
+  </si>
+  <si>
+    <t>12503847477</t>
+  </si>
+  <si>
+    <t>16044672944</t>
+  </si>
+  <si>
+    <t>12505905678</t>
+  </si>
+  <si>
+    <t>12503891326</t>
+  </si>
+  <si>
+    <t>16042165823</t>
+  </si>
+  <si>
     <t>2/11/2017</t>
   </si>
   <si>
@@ -1262,6 +2342,132 @@
   </si>
   <si>
     <t>30/9/1986</t>
+  </si>
+  <si>
+    <t>12/6/1988</t>
+  </si>
+  <si>
+    <t>14/11/2007</t>
+  </si>
+  <si>
+    <t>10/7/2012</t>
+  </si>
+  <si>
+    <t>21/6/2017</t>
+  </si>
+  <si>
+    <t>24/8/1993</t>
+  </si>
+  <si>
+    <t>31/10/1963</t>
+  </si>
+  <si>
+    <t>16/2/2017</t>
+  </si>
+  <si>
+    <t>2/10/2014</t>
+  </si>
+  <si>
+    <t>2/12/2008</t>
+  </si>
+  <si>
+    <t>11/6/1992</t>
+  </si>
+  <si>
+    <t>17/9/2017</t>
+  </si>
+  <si>
+    <t>23/9/2014</t>
+  </si>
+  <si>
+    <t>25/6/2017</t>
+  </si>
+  <si>
+    <t>22/4/2018</t>
+  </si>
+  <si>
+    <t>31/7/2006</t>
+  </si>
+  <si>
+    <t>24/6/1992</t>
+  </si>
+  <si>
+    <t>4/7/2012</t>
+  </si>
+  <si>
+    <t>6/8/2002</t>
+  </si>
+  <si>
+    <t>9/8/2017</t>
+  </si>
+  <si>
+    <t>20/10/2016</t>
+  </si>
+  <si>
+    <t>31/10/1988</t>
+  </si>
+  <si>
+    <t>26/8/2012</t>
+  </si>
+  <si>
+    <t>14/5/2012</t>
+  </si>
+  <si>
+    <t>28/7/2014</t>
+  </si>
+  <si>
+    <t>21/10/2013</t>
+  </si>
+  <si>
+    <t>5/9/2005</t>
+  </si>
+  <si>
+    <t>12/7/2017</t>
+  </si>
+  <si>
+    <t>8/6/1992</t>
+  </si>
+  <si>
+    <t>8/2/2018</t>
+  </si>
+  <si>
+    <t>10/7/2000</t>
+  </si>
+  <si>
+    <t>30/4/2020</t>
+  </si>
+  <si>
+    <t>18/10/2006</t>
+  </si>
+  <si>
+    <t>22/6/2006</t>
+  </si>
+  <si>
+    <t>26/8/1991</t>
+  </si>
+  <si>
+    <t>23/4/2017</t>
+  </si>
+  <si>
+    <t>27/11/2013</t>
+  </si>
+  <si>
+    <t>13/10/2011</t>
+  </si>
+  <si>
+    <t>12/9/2012</t>
+  </si>
+  <si>
+    <t>28/2/2011</t>
+  </si>
+  <si>
+    <t>8/5/2017</t>
+  </si>
+  <si>
+    <t>7/5/2009</t>
+  </si>
+  <si>
+    <t>2/8/2017</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +2838,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1663,19 +2869,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>276</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>215</v>
+        <v>415</v>
       </c>
       <c r="E2" t="s">
-        <v>283</v>
+        <v>550</v>
       </c>
       <c r="F2" t="s">
-        <v>352</v>
+        <v>689</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1683,19 +2889,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>277</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>216</v>
+        <v>416</v>
       </c>
       <c r="E3" t="s">
-        <v>284</v>
+        <v>551</v>
       </c>
       <c r="F3" t="s">
-        <v>353</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1703,19 +2909,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>278</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>217</v>
+        <v>417</v>
       </c>
       <c r="E4" t="s">
-        <v>285</v>
+        <v>552</v>
       </c>
       <c r="F4" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1723,19 +2929,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>279</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>418</v>
       </c>
       <c r="E5" t="s">
-        <v>286</v>
+        <v>553</v>
       </c>
       <c r="F5" t="s">
-        <v>355</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1743,19 +2949,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>219</v>
+        <v>419</v>
       </c>
       <c r="E6" t="s">
-        <v>287</v>
+        <v>554</v>
       </c>
       <c r="F6" t="s">
-        <v>356</v>
+        <v>693</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1763,19 +2969,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>281</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="E7" t="s">
-        <v>288</v>
+        <v>555</v>
       </c>
       <c r="F7" t="s">
-        <v>357</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1783,19 +2989,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>282</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>221</v>
+        <v>421</v>
       </c>
       <c r="E8" t="s">
-        <v>289</v>
+        <v>556</v>
       </c>
       <c r="F8" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1803,19 +3009,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1823,19 +3029,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>283</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>222</v>
+        <v>422</v>
       </c>
       <c r="E10" t="s">
-        <v>290</v>
+        <v>557</v>
       </c>
       <c r="F10" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1843,19 +3049,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>284</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>223</v>
+        <v>423</v>
       </c>
       <c r="E11" t="s">
-        <v>291</v>
+        <v>558</v>
       </c>
       <c r="F11" t="s">
-        <v>358</v>
+        <v>695</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1863,19 +3069,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>285</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>224</v>
+        <v>424</v>
       </c>
       <c r="E12" t="s">
-        <v>292</v>
+        <v>559</v>
       </c>
       <c r="F12" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1883,19 +3089,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>286</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>425</v>
       </c>
       <c r="E13" t="s">
-        <v>293</v>
+        <v>560</v>
       </c>
       <c r="F13" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1903,19 +3109,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>287</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>226</v>
+        <v>426</v>
       </c>
       <c r="E14" t="s">
-        <v>294</v>
+        <v>561</v>
       </c>
       <c r="F14" t="s">
-        <v>359</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1923,19 +3129,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>288</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>227</v>
+        <v>427</v>
       </c>
       <c r="E15" t="s">
-        <v>295</v>
+        <v>562</v>
       </c>
       <c r="F15" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1943,19 +3149,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>289</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>228</v>
+        <v>428</v>
       </c>
       <c r="E16" t="s">
-        <v>296</v>
+        <v>563</v>
       </c>
       <c r="F16" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1963,19 +3169,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>229</v>
+        <v>429</v>
       </c>
       <c r="E17" t="s">
-        <v>297</v>
+        <v>564</v>
       </c>
       <c r="F17" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1983,19 +3189,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>291</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>230</v>
+        <v>430</v>
       </c>
       <c r="E18" t="s">
-        <v>298</v>
+        <v>565</v>
       </c>
       <c r="F18" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2003,19 +3209,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>292</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>231</v>
+        <v>431</v>
       </c>
       <c r="E19" t="s">
-        <v>299</v>
+        <v>566</v>
       </c>
       <c r="F19" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2023,19 +3229,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>293</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>232</v>
+        <v>432</v>
       </c>
       <c r="E20" t="s">
-        <v>300</v>
+        <v>567</v>
       </c>
       <c r="F20" t="s">
-        <v>360</v>
+        <v>697</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2043,19 +3249,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>294</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>233</v>
+        <v>433</v>
       </c>
       <c r="E21" t="s">
-        <v>301</v>
+        <v>568</v>
       </c>
       <c r="F21" t="s">
-        <v>361</v>
+        <v>698</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2063,19 +3269,19 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>295</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>234</v>
+        <v>434</v>
       </c>
       <c r="E22" t="s">
-        <v>302</v>
+        <v>569</v>
       </c>
       <c r="F22" t="s">
-        <v>362</v>
+        <v>699</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2083,19 +3289,19 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>296</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>235</v>
+        <v>435</v>
       </c>
       <c r="E23" t="s">
-        <v>303</v>
+        <v>570</v>
       </c>
       <c r="F23" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2103,19 +3309,19 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>297</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>236</v>
+        <v>436</v>
       </c>
       <c r="E24" t="s">
-        <v>304</v>
+        <v>571</v>
       </c>
       <c r="F24" t="s">
-        <v>363</v>
+        <v>700</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2123,19 +3329,19 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="C25" t="s">
-        <v>168</v>
+        <v>298</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>237</v>
+        <v>437</v>
       </c>
       <c r="E25" t="s">
-        <v>305</v>
+        <v>572</v>
       </c>
       <c r="F25" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2143,19 +3349,19 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>299</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>238</v>
+        <v>438</v>
       </c>
       <c r="E26" t="s">
-        <v>306</v>
+        <v>573</v>
       </c>
       <c r="F26" t="s">
-        <v>364</v>
+        <v>701</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2163,19 +3369,19 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="C27" t="s">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>239</v>
+        <v>439</v>
       </c>
       <c r="E27" t="s">
-        <v>307</v>
+        <v>574</v>
       </c>
       <c r="F27" t="s">
-        <v>365</v>
+        <v>702</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2183,19 +3389,19 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>301</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>240</v>
+        <v>440</v>
       </c>
       <c r="E28" t="s">
-        <v>308</v>
+        <v>575</v>
       </c>
       <c r="F28" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2203,19 +3409,19 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="C29" t="s">
-        <v>172</v>
+        <v>302</v>
       </c>
       <c r="D29" t="s">
-        <v>241</v>
+        <v>441</v>
       </c>
       <c r="E29" t="s">
-        <v>309</v>
+        <v>576</v>
       </c>
       <c r="F29" t="s">
-        <v>366</v>
+        <v>703</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2223,19 +3429,19 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="C30" t="s">
-        <v>173</v>
+        <v>303</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>242</v>
+        <v>442</v>
       </c>
       <c r="E30" t="s">
-        <v>310</v>
+        <v>577</v>
       </c>
       <c r="F30" t="s">
-        <v>367</v>
+        <v>704</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2243,19 +3449,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>304</v>
       </c>
       <c r="D31" t="s">
-        <v>243</v>
+        <v>443</v>
       </c>
       <c r="E31" t="s">
-        <v>311</v>
+        <v>578</v>
       </c>
       <c r="F31" t="s">
-        <v>368</v>
+        <v>705</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2263,19 +3469,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="C32" t="s">
-        <v>175</v>
+        <v>305</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>244</v>
+        <v>444</v>
       </c>
       <c r="E32" t="s">
-        <v>312</v>
+        <v>579</v>
       </c>
       <c r="F32" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2283,19 +3489,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="C33" t="s">
-        <v>176</v>
+        <v>306</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>245</v>
+        <v>445</v>
       </c>
       <c r="E33" t="s">
-        <v>313</v>
+        <v>580</v>
       </c>
       <c r="F33" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2303,19 +3509,19 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="C34" t="s">
-        <v>177</v>
+        <v>307</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>246</v>
+        <v>446</v>
       </c>
       <c r="E34" t="s">
-        <v>314</v>
+        <v>581</v>
       </c>
       <c r="F34" t="s">
-        <v>369</v>
+        <v>706</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2323,19 +3529,19 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="C35" t="s">
-        <v>178</v>
+        <v>308</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>247</v>
+        <v>447</v>
       </c>
       <c r="E35" t="s">
-        <v>315</v>
+        <v>582</v>
       </c>
       <c r="F35" t="s">
-        <v>370</v>
+        <v>707</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2343,19 +3549,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="C36" t="s">
-        <v>179</v>
+        <v>309</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>248</v>
+        <v>448</v>
       </c>
       <c r="E36" t="s">
-        <v>316</v>
+        <v>583</v>
       </c>
       <c r="F36" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2363,19 +3569,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="C37" t="s">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>249</v>
+        <v>449</v>
       </c>
       <c r="E37" t="s">
-        <v>317</v>
+        <v>584</v>
       </c>
       <c r="F37" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2383,19 +3589,19 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="C38" t="s">
-        <v>181</v>
+        <v>311</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="E38" t="s">
-        <v>318</v>
+        <v>585</v>
       </c>
       <c r="F38" t="s">
-        <v>371</v>
+        <v>708</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2403,19 +3609,19 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="C39" t="s">
-        <v>182</v>
+        <v>312</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>251</v>
+        <v>451</v>
       </c>
       <c r="E39" t="s">
-        <v>319</v>
+        <v>586</v>
       </c>
       <c r="F39" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2423,19 +3629,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="C40" t="s">
-        <v>183</v>
+        <v>313</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>252</v>
+        <v>452</v>
       </c>
       <c r="E40" t="s">
-        <v>320</v>
+        <v>587</v>
       </c>
       <c r="F40" t="s">
-        <v>372</v>
+        <v>709</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2443,19 +3649,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="C41" t="s">
-        <v>184</v>
+        <v>314</v>
       </c>
       <c r="D41" t="s">
-        <v>253</v>
+        <v>453</v>
       </c>
       <c r="E41" t="s">
-        <v>321</v>
+        <v>588</v>
       </c>
       <c r="F41" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2463,19 +3669,19 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="C42" t="s">
-        <v>185</v>
+        <v>315</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>254</v>
+        <v>454</v>
       </c>
       <c r="E42" t="s">
-        <v>322</v>
+        <v>589</v>
       </c>
       <c r="F42" t="s">
-        <v>373</v>
+        <v>710</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2483,19 +3689,19 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="C43" t="s">
-        <v>186</v>
+        <v>316</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>255</v>
+        <v>455</v>
       </c>
       <c r="E43" t="s">
-        <v>323</v>
+        <v>590</v>
       </c>
       <c r="F43" t="s">
-        <v>374</v>
+        <v>711</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2503,19 +3709,19 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="C44" t="s">
-        <v>187</v>
+        <v>317</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="E44" t="s">
-        <v>324</v>
+        <v>591</v>
       </c>
       <c r="F44" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2523,19 +3729,19 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>318</v>
       </c>
       <c r="D45" t="s">
-        <v>257</v>
+        <v>457</v>
       </c>
       <c r="E45" t="s">
-        <v>325</v>
+        <v>592</v>
       </c>
       <c r="F45" t="s">
-        <v>375</v>
+        <v>712</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2543,19 +3749,19 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>319</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>258</v>
+        <v>458</v>
       </c>
       <c r="E46" t="s">
-        <v>326</v>
+        <v>593</v>
       </c>
       <c r="F46" t="s">
-        <v>376</v>
+        <v>713</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2563,19 +3769,19 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="C47" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>259</v>
+        <v>459</v>
       </c>
       <c r="E47" t="s">
-        <v>327</v>
+        <v>594</v>
       </c>
       <c r="F47" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2583,19 +3789,19 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="C48" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>229</v>
+        <v>429</v>
       </c>
       <c r="E48" t="s">
-        <v>328</v>
+        <v>595</v>
       </c>
       <c r="F48" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2603,19 +3809,19 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="C49" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="E49" t="s">
-        <v>329</v>
+        <v>596</v>
       </c>
       <c r="F49" t="s">
-        <v>377</v>
+        <v>714</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2623,19 +3829,19 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="C50" t="s">
-        <v>193</v>
+        <v>323</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>261</v>
+        <v>461</v>
       </c>
       <c r="E50" t="s">
-        <v>330</v>
+        <v>597</v>
       </c>
       <c r="F50" t="s">
-        <v>373</v>
+        <v>710</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2643,19 +3849,19 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="C51" t="s">
-        <v>194</v>
+        <v>324</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>262</v>
+        <v>462</v>
       </c>
       <c r="E51" t="s">
-        <v>331</v>
+        <v>598</v>
       </c>
       <c r="F51" t="s">
-        <v>378</v>
+        <v>715</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2663,19 +3869,19 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="C52" t="s">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>263</v>
+        <v>463</v>
       </c>
       <c r="E52" t="s">
-        <v>332</v>
+        <v>599</v>
       </c>
       <c r="F52" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2683,19 +3889,19 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="C53" t="s">
-        <v>196</v>
+        <v>326</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>264</v>
+        <v>464</v>
       </c>
       <c r="E53" t="s">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="F53" t="s">
-        <v>379</v>
+        <v>716</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2703,19 +3909,19 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="C54" t="s">
-        <v>197</v>
+        <v>327</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>265</v>
+        <v>465</v>
       </c>
       <c r="E54" t="s">
-        <v>334</v>
+        <v>601</v>
       </c>
       <c r="F54" t="s">
-        <v>380</v>
+        <v>717</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2723,19 +3929,19 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="E55" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="F55" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2743,19 +3949,19 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="C56" t="s">
-        <v>198</v>
+        <v>328</v>
       </c>
       <c r="D56" t="s">
-        <v>266</v>
+        <v>466</v>
       </c>
       <c r="E56" t="s">
-        <v>335</v>
+        <v>602</v>
       </c>
       <c r="F56" t="s">
-        <v>381</v>
+        <v>718</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2763,19 +3969,19 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="C57" t="s">
-        <v>199</v>
+        <v>329</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>267</v>
+        <v>467</v>
       </c>
       <c r="E57" t="s">
-        <v>336</v>
+        <v>603</v>
       </c>
       <c r="F57" t="s">
-        <v>382</v>
+        <v>719</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2783,19 +3989,19 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="C58" t="s">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="D58" t="s">
-        <v>268</v>
+        <v>468</v>
       </c>
       <c r="E58" t="s">
-        <v>337</v>
+        <v>604</v>
       </c>
       <c r="F58" t="s">
-        <v>383</v>
+        <v>720</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2803,19 +4009,19 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="C59" t="s">
-        <v>201</v>
+        <v>331</v>
       </c>
       <c r="D59" t="s">
-        <v>269</v>
+        <v>469</v>
       </c>
       <c r="E59" t="s">
-        <v>338</v>
+        <v>605</v>
       </c>
       <c r="F59" t="s">
-        <v>352</v>
+        <v>689</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2823,19 +4029,19 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="C60" t="s">
-        <v>202</v>
+        <v>332</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>270</v>
+        <v>470</v>
       </c>
       <c r="E60" t="s">
-        <v>339</v>
+        <v>606</v>
       </c>
       <c r="F60" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2843,19 +4049,19 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="C61" t="s">
-        <v>203</v>
+        <v>333</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>271</v>
+        <v>471</v>
       </c>
       <c r="E61" t="s">
-        <v>340</v>
+        <v>607</v>
       </c>
       <c r="F61" t="s">
-        <v>373</v>
+        <v>710</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2863,19 +4069,19 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="C62" t="s">
-        <v>204</v>
+        <v>334</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>272</v>
+        <v>472</v>
       </c>
       <c r="E62" t="s">
-        <v>341</v>
+        <v>608</v>
       </c>
       <c r="F62" t="s">
-        <v>384</v>
+        <v>721</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2883,19 +4089,19 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="C63" t="s">
-        <v>205</v>
+        <v>335</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>273</v>
+        <v>473</v>
       </c>
       <c r="E63" t="s">
-        <v>342</v>
+        <v>609</v>
       </c>
       <c r="F63" t="s">
-        <v>385</v>
+        <v>722</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2903,19 +4109,19 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="C64" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="D64" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="E64" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="F64" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2923,19 +4129,19 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="C65" t="s">
-        <v>206</v>
+        <v>336</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>274</v>
+        <v>474</v>
       </c>
       <c r="E65" t="s">
-        <v>343</v>
+        <v>610</v>
       </c>
       <c r="F65" t="s">
-        <v>386</v>
+        <v>723</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2943,19 +4149,19 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="C66" t="s">
-        <v>207</v>
+        <v>337</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>275</v>
+        <v>475</v>
       </c>
       <c r="E66" t="s">
-        <v>344</v>
+        <v>611</v>
       </c>
       <c r="F66" t="s">
-        <v>387</v>
+        <v>724</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2963,19 +4169,19 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="C67" t="s">
-        <v>208</v>
+        <v>338</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>276</v>
+        <v>476</v>
       </c>
       <c r="E67" t="s">
-        <v>345</v>
+        <v>612</v>
       </c>
       <c r="F67" t="s">
-        <v>373</v>
+        <v>710</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2983,19 +4189,19 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="C68" t="s">
-        <v>209</v>
+        <v>339</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>277</v>
+        <v>477</v>
       </c>
       <c r="E68" t="s">
-        <v>346</v>
+        <v>613</v>
       </c>
       <c r="F68" t="s">
-        <v>373</v>
+        <v>710</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3003,19 +4209,19 @@
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="C69" t="s">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>278</v>
+        <v>478</v>
       </c>
       <c r="E69" t="s">
-        <v>347</v>
+        <v>614</v>
       </c>
       <c r="F69" t="s">
-        <v>388</v>
+        <v>725</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3023,19 +4229,19 @@
         <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="C70" t="s">
-        <v>211</v>
+        <v>341</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>279</v>
+        <v>479</v>
       </c>
       <c r="E70" t="s">
-        <v>348</v>
+        <v>615</v>
       </c>
       <c r="F70" t="s">
-        <v>389</v>
+        <v>726</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3043,19 +4249,19 @@
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="C71" t="s">
-        <v>212</v>
+        <v>342</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>280</v>
+        <v>480</v>
       </c>
       <c r="E71" t="s">
-        <v>349</v>
+        <v>616</v>
       </c>
       <c r="F71" t="s">
-        <v>390</v>
+        <v>727</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3063,19 +4269,19 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="C72" t="s">
-        <v>213</v>
+        <v>343</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>281</v>
+        <v>481</v>
       </c>
       <c r="E72" t="s">
-        <v>350</v>
+        <v>617</v>
       </c>
       <c r="F72" t="s">
-        <v>391</v>
+        <v>728</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3083,19 +4289,1419 @@
         <v>77</v>
       </c>
       <c r="B73" t="s">
+        <v>215</v>
+      </c>
+      <c r="C73" t="s">
+        <v>344</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E73" t="s">
+        <v>618</v>
+      </c>
+      <c r="F73" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" t="s">
+        <v>345</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E74" t="s">
+        <v>619</v>
+      </c>
+      <c r="F74" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75" t="s">
+        <v>346</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E75" t="s">
+        <v>620</v>
+      </c>
+      <c r="F75" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76" t="s">
+        <v>347</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E76" t="s">
+        <v>621</v>
+      </c>
+      <c r="F76" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" t="s">
+        <v>348</v>
+      </c>
+      <c r="D77" t="s">
+        <v>486</v>
+      </c>
+      <c r="E77" t="s">
+        <v>622</v>
+      </c>
+      <c r="F77" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>219</v>
+      </c>
+      <c r="C78" t="s">
+        <v>349</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E78" t="s">
+        <v>623</v>
+      </c>
+      <c r="F78" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>220</v>
+      </c>
+      <c r="C79" t="s">
+        <v>350</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E79" t="s">
+        <v>624</v>
+      </c>
+      <c r="F79" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>221</v>
+      </c>
+      <c r="C80" t="s">
+        <v>351</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E80" t="s">
+        <v>625</v>
+      </c>
+      <c r="F80" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81" t="s">
+        <v>352</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E81" t="s">
+        <v>626</v>
+      </c>
+      <c r="F81" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" t="s">
+        <v>223</v>
+      </c>
+      <c r="C82" t="s">
+        <v>353</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E82" t="s">
+        <v>627</v>
+      </c>
+      <c r="F82" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" t="s">
+        <v>224</v>
+      </c>
+      <c r="C83" t="s">
+        <v>354</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E83" t="s">
+        <v>628</v>
+      </c>
+      <c r="F83" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" t="s">
+        <v>225</v>
+      </c>
+      <c r="C84" t="s">
+        <v>355</v>
+      </c>
+      <c r="D84" t="s">
+        <v>493</v>
+      </c>
+      <c r="E84" t="s">
+        <v>629</v>
+      </c>
+      <c r="F84" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" t="s">
+        <v>226</v>
+      </c>
+      <c r="C85" t="s">
+        <v>356</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E85" t="s">
+        <v>630</v>
+      </c>
+      <c r="F85" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" t="s">
+        <v>227</v>
+      </c>
+      <c r="C86" t="s">
+        <v>357</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E86" t="s">
+        <v>631</v>
+      </c>
+      <c r="F86" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" t="s">
+        <v>228</v>
+      </c>
+      <c r="C87" t="s">
+        <v>358</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E87" t="s">
+        <v>632</v>
+      </c>
+      <c r="F87" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" t="s">
+        <v>229</v>
+      </c>
+      <c r="C88" t="s">
+        <v>359</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E88" t="s">
+        <v>633</v>
+      </c>
+      <c r="F88" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" t="s">
+        <v>168</v>
+      </c>
+      <c r="C89" t="s">
+        <v>360</v>
+      </c>
+      <c r="D89" t="s">
+        <v>498</v>
+      </c>
+      <c r="E89" t="s">
+        <v>634</v>
+      </c>
+      <c r="F89" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" t="s">
+        <v>230</v>
+      </c>
+      <c r="C90" t="s">
+        <v>361</v>
+      </c>
+      <c r="D90" t="s">
+        <v>499</v>
+      </c>
+      <c r="E90" t="s">
+        <v>635</v>
+      </c>
+      <c r="F90" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" t="s">
+        <v>231</v>
+      </c>
+      <c r="C91" t="s">
+        <v>362</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E91" t="s">
+        <v>636</v>
+      </c>
+      <c r="F91" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" t="s">
+        <v>199</v>
+      </c>
+      <c r="C92" t="s">
+        <v>363</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E92" t="s">
+        <v>637</v>
+      </c>
+      <c r="F92" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" t="s">
+        <v>232</v>
+      </c>
+      <c r="C93" t="s">
+        <v>364</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E93" t="s">
+        <v>638</v>
+      </c>
+      <c r="F93" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" t="s">
+        <v>233</v>
+      </c>
+      <c r="C94" t="s">
+        <v>365</v>
+      </c>
+      <c r="D94" t="s">
+        <v>503</v>
+      </c>
+      <c r="E94" t="s">
+        <v>639</v>
+      </c>
+      <c r="F94" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" t="s">
+        <v>168</v>
+      </c>
+      <c r="C95" t="s">
+        <v>366</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E95" t="s">
+        <v>640</v>
+      </c>
+      <c r="F95" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" t="s">
+        <v>234</v>
+      </c>
+      <c r="C96" t="s">
+        <v>367</v>
+      </c>
+      <c r="D96" t="s">
+        <v>505</v>
+      </c>
+      <c r="E96" t="s">
+        <v>641</v>
+      </c>
+      <c r="F96" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" t="s">
+        <v>368</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E97" t="s">
+        <v>642</v>
+      </c>
+      <c r="F97" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" t="s">
+        <v>235</v>
+      </c>
+      <c r="C98" t="s">
+        <v>369</v>
+      </c>
+      <c r="D98" t="s">
+        <v>507</v>
+      </c>
+      <c r="E98" t="s">
+        <v>643</v>
+      </c>
+      <c r="F98" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" t="s">
+        <v>236</v>
+      </c>
+      <c r="C99" t="s">
+        <v>370</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E99" t="s">
+        <v>644</v>
+      </c>
+      <c r="F99" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" t="s">
+        <v>237</v>
+      </c>
+      <c r="C100" t="s">
+        <v>371</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E100" t="s">
+        <v>645</v>
+      </c>
+      <c r="F100" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" t="s">
+        <v>238</v>
+      </c>
+      <c r="C101" t="s">
+        <v>372</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E101" t="s">
+        <v>646</v>
+      </c>
+      <c r="F101" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" t="s">
+        <v>239</v>
+      </c>
+      <c r="C102" t="s">
+        <v>373</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E102" t="s">
+        <v>647</v>
+      </c>
+      <c r="F102" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" t="s">
+        <v>240</v>
+      </c>
+      <c r="C103" t="s">
+        <v>374</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E103" t="s">
+        <v>648</v>
+      </c>
+      <c r="F103" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" t="s">
+        <v>241</v>
+      </c>
+      <c r="C104" t="s">
+        <v>375</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E104" t="s">
+        <v>649</v>
+      </c>
+      <c r="F104" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" t="s">
+        <v>168</v>
+      </c>
+      <c r="C105" t="s">
+        <v>376</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E105" t="s">
+        <v>650</v>
+      </c>
+      <c r="F105" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" t="s">
+        <v>202</v>
+      </c>
+      <c r="C106" t="s">
+        <v>377</v>
+      </c>
+      <c r="D106" t="s">
+        <v>515</v>
+      </c>
+      <c r="E106" t="s">
+        <v>651</v>
+      </c>
+      <c r="F106" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" t="s">
+        <v>242</v>
+      </c>
+      <c r="C107" t="s">
+        <v>378</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E107" t="s">
+        <v>652</v>
+      </c>
+      <c r="F107" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" t="s">
+        <v>243</v>
+      </c>
+      <c r="C108" t="s">
+        <v>379</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E108" t="s">
+        <v>653</v>
+      </c>
+      <c r="F108" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" t="s">
+        <v>244</v>
+      </c>
+      <c r="C109" t="s">
+        <v>380</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E109" t="s">
+        <v>654</v>
+      </c>
+      <c r="F109" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" t="s">
+        <v>245</v>
+      </c>
+      <c r="C110" t="s">
+        <v>381</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E110" t="s">
+        <v>655</v>
+      </c>
+      <c r="F110" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" t="s">
+        <v>246</v>
+      </c>
+      <c r="C111" t="s">
+        <v>382</v>
+      </c>
+      <c r="D111" t="s">
+        <v>519</v>
+      </c>
+      <c r="E111" t="s">
+        <v>656</v>
+      </c>
+      <c r="F111" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" t="s">
+        <v>247</v>
+      </c>
+      <c r="C112" t="s">
+        <v>383</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E112" t="s">
+        <v>657</v>
+      </c>
+      <c r="F112" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113" t="s">
+        <v>384</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E113" t="s">
+        <v>658</v>
+      </c>
+      <c r="F113" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" t="s">
+        <v>249</v>
+      </c>
+      <c r="C114" t="s">
+        <v>385</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E114" t="s">
+        <v>659</v>
+      </c>
+      <c r="F114" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" t="s">
+        <v>250</v>
+      </c>
+      <c r="C115" t="s">
+        <v>386</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E115" t="s">
+        <v>660</v>
+      </c>
+      <c r="F115" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" t="s">
+        <v>251</v>
+      </c>
+      <c r="C116" t="s">
+        <v>387</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E116" t="s">
+        <v>661</v>
+      </c>
+      <c r="F116" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" t="s">
+        <v>199</v>
+      </c>
+      <c r="C117" t="s">
+        <v>388</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E117" t="s">
+        <v>662</v>
+      </c>
+      <c r="F117" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" t="s">
+        <v>252</v>
+      </c>
+      <c r="C118" t="s">
+        <v>389</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E118" t="s">
+        <v>663</v>
+      </c>
+      <c r="F118" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" t="s">
+        <v>253</v>
+      </c>
+      <c r="C119" t="s">
+        <v>390</v>
+      </c>
+      <c r="D119" t="s">
+        <v>526</v>
+      </c>
+      <c r="E119" t="s">
+        <v>664</v>
+      </c>
+      <c r="F119" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" t="s">
+        <v>254</v>
+      </c>
+      <c r="C120" t="s">
+        <v>391</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E120" t="s">
+        <v>665</v>
+      </c>
+      <c r="F120" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" t="s">
+        <v>255</v>
+      </c>
+      <c r="C121" t="s">
+        <v>392</v>
+      </c>
+      <c r="D121" t="s">
+        <v>528</v>
+      </c>
+      <c r="E121" t="s">
+        <v>666</v>
+      </c>
+      <c r="F121" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" t="s">
+        <v>256</v>
+      </c>
+      <c r="C122" t="s">
+        <v>393</v>
+      </c>
+      <c r="D122" t="s">
+        <v>529</v>
+      </c>
+      <c r="E122" t="s">
+        <v>667</v>
+      </c>
+      <c r="F122" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" t="s">
+        <v>257</v>
+      </c>
+      <c r="C123" t="s">
+        <v>394</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E123" t="s">
+        <v>668</v>
+      </c>
+      <c r="F123" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" t="s">
+        <v>258</v>
+      </c>
+      <c r="C124" t="s">
+        <v>395</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E124" t="s">
+        <v>669</v>
+      </c>
+      <c r="F124" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" t="s">
+        <v>259</v>
+      </c>
+      <c r="C125" t="s">
+        <v>396</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E125" t="s">
+        <v>670</v>
+      </c>
+      <c r="F125" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" t="s">
+        <v>260</v>
+      </c>
+      <c r="C126" t="s">
+        <v>397</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E126" t="s">
+        <v>671</v>
+      </c>
+      <c r="F126" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B127" t="s">
+        <v>261</v>
+      </c>
+      <c r="C127" t="s">
+        <v>398</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E127" t="s">
+        <v>672</v>
+      </c>
+      <c r="F127" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" t="s">
+        <v>262</v>
+      </c>
+      <c r="C128" t="s">
+        <v>399</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E128" t="s">
+        <v>673</v>
+      </c>
+      <c r="F128" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" t="s">
+        <v>263</v>
+      </c>
+      <c r="C129" t="s">
+        <v>400</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E129" t="s">
+        <v>674</v>
+      </c>
+      <c r="F129" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130" t="s">
+        <v>264</v>
+      </c>
+      <c r="C130" t="s">
+        <v>401</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E130" t="s">
+        <v>675</v>
+      </c>
+      <c r="F130" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" t="s">
+        <v>265</v>
+      </c>
+      <c r="C131" t="s">
+        <v>402</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E131" t="s">
+        <v>676</v>
+      </c>
+      <c r="F131" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132" t="s">
+        <v>403</v>
+      </c>
+      <c r="D132" t="s">
+        <v>539</v>
+      </c>
+      <c r="E132" t="s">
+        <v>677</v>
+      </c>
+      <c r="F132" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" t="s">
+        <v>267</v>
+      </c>
+      <c r="C133" t="s">
+        <v>404</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E133" t="s">
+        <v>678</v>
+      </c>
+      <c r="F133" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134" t="s">
+        <v>268</v>
+      </c>
+      <c r="C134" t="s">
+        <v>405</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E134" t="s">
+        <v>679</v>
+      </c>
+      <c r="F134" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" t="s">
+        <v>269</v>
+      </c>
+      <c r="C135" t="s">
+        <v>406</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E135" t="s">
+        <v>680</v>
+      </c>
+      <c r="F135" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" t="s">
+        <v>270</v>
+      </c>
+      <c r="C136" t="s">
+        <v>407</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E136" t="s">
+        <v>681</v>
+      </c>
+      <c r="F136" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137" t="s">
+        <v>271</v>
+      </c>
+      <c r="C137" t="s">
+        <v>408</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E137" t="s">
+        <v>682</v>
+      </c>
+      <c r="F137" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138" t="s">
+        <v>272</v>
+      </c>
+      <c r="C138" t="s">
+        <v>409</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E138" t="s">
+        <v>683</v>
+      </c>
+      <c r="F138" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" t="s">
+        <v>273</v>
+      </c>
+      <c r="C139" t="s">
+        <v>410</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E139" t="s">
+        <v>684</v>
+      </c>
+      <c r="F139" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140" t="s">
+        <v>274</v>
+      </c>
+      <c r="C140" t="s">
+        <v>411</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E140" t="s">
+        <v>685</v>
+      </c>
+      <c r="F140" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C73" t="s">
-        <v>214</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E73" t="s">
-        <v>351</v>
-      </c>
-      <c r="F73" t="s">
-        <v>392</v>
+      <c r="B141" t="s">
+        <v>168</v>
+      </c>
+      <c r="C141" t="s">
+        <v>412</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E141" t="s">
+        <v>686</v>
+      </c>
+      <c r="F141" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" t="s">
+        <v>275</v>
+      </c>
+      <c r="C142" t="s">
+        <v>413</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E142" t="s">
+        <v>687</v>
+      </c>
+      <c r="F142" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143" t="s">
+        <v>199</v>
+      </c>
+      <c r="C143" t="s">
+        <v>414</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E143" t="s">
+        <v>688</v>
+      </c>
+      <c r="F143" t="s">
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -3232,6 +5838,133 @@
     <hyperlink ref="D72" r:id="rId130"/>
     <hyperlink ref="A73" r:id="rId131"/>
     <hyperlink ref="D73" r:id="rId132"/>
+    <hyperlink ref="A74" r:id="rId133"/>
+    <hyperlink ref="D74" r:id="rId134"/>
+    <hyperlink ref="A75" r:id="rId135"/>
+    <hyperlink ref="D75" r:id="rId136"/>
+    <hyperlink ref="A76" r:id="rId137"/>
+    <hyperlink ref="D76" r:id="rId138"/>
+    <hyperlink ref="A77" r:id="rId139"/>
+    <hyperlink ref="A78" r:id="rId140"/>
+    <hyperlink ref="D78" r:id="rId141"/>
+    <hyperlink ref="A79" r:id="rId142"/>
+    <hyperlink ref="D79" r:id="rId143"/>
+    <hyperlink ref="A80" r:id="rId144"/>
+    <hyperlink ref="D80" r:id="rId145"/>
+    <hyperlink ref="A81" r:id="rId146"/>
+    <hyperlink ref="D81" r:id="rId147"/>
+    <hyperlink ref="A82" r:id="rId148"/>
+    <hyperlink ref="D82" r:id="rId149"/>
+    <hyperlink ref="A83" r:id="rId150"/>
+    <hyperlink ref="D83" r:id="rId151"/>
+    <hyperlink ref="A84" r:id="rId152"/>
+    <hyperlink ref="A85" r:id="rId153"/>
+    <hyperlink ref="D85" r:id="rId154"/>
+    <hyperlink ref="A86" r:id="rId155"/>
+    <hyperlink ref="D86" r:id="rId156"/>
+    <hyperlink ref="A87" r:id="rId157"/>
+    <hyperlink ref="D87" r:id="rId158"/>
+    <hyperlink ref="A88" r:id="rId159"/>
+    <hyperlink ref="D88" r:id="rId160"/>
+    <hyperlink ref="A89" r:id="rId161"/>
+    <hyperlink ref="A90" r:id="rId162"/>
+    <hyperlink ref="A91" r:id="rId163"/>
+    <hyperlink ref="D91" r:id="rId164"/>
+    <hyperlink ref="A92" r:id="rId165"/>
+    <hyperlink ref="D92" r:id="rId166"/>
+    <hyperlink ref="A93" r:id="rId167"/>
+    <hyperlink ref="D93" r:id="rId168"/>
+    <hyperlink ref="A94" r:id="rId169"/>
+    <hyperlink ref="A95" r:id="rId170"/>
+    <hyperlink ref="D95" r:id="rId171"/>
+    <hyperlink ref="A96" r:id="rId172"/>
+    <hyperlink ref="A97" r:id="rId173"/>
+    <hyperlink ref="D97" r:id="rId174"/>
+    <hyperlink ref="A98" r:id="rId175"/>
+    <hyperlink ref="A99" r:id="rId176"/>
+    <hyperlink ref="D99" r:id="rId177"/>
+    <hyperlink ref="A100" r:id="rId178"/>
+    <hyperlink ref="D100" r:id="rId179"/>
+    <hyperlink ref="A101" r:id="rId180"/>
+    <hyperlink ref="D101" r:id="rId181"/>
+    <hyperlink ref="A102" r:id="rId182"/>
+    <hyperlink ref="D102" r:id="rId183"/>
+    <hyperlink ref="A103" r:id="rId184"/>
+    <hyperlink ref="D103" r:id="rId185"/>
+    <hyperlink ref="A104" r:id="rId186"/>
+    <hyperlink ref="D104" r:id="rId187"/>
+    <hyperlink ref="A105" r:id="rId188"/>
+    <hyperlink ref="D105" r:id="rId189"/>
+    <hyperlink ref="A106" r:id="rId190"/>
+    <hyperlink ref="A107" r:id="rId191"/>
+    <hyperlink ref="D107" r:id="rId192"/>
+    <hyperlink ref="A108" r:id="rId193"/>
+    <hyperlink ref="D108" r:id="rId194"/>
+    <hyperlink ref="A109" r:id="rId195"/>
+    <hyperlink ref="D109" r:id="rId196"/>
+    <hyperlink ref="A110" r:id="rId197"/>
+    <hyperlink ref="D110" r:id="rId198"/>
+    <hyperlink ref="A111" r:id="rId199"/>
+    <hyperlink ref="A112" r:id="rId200"/>
+    <hyperlink ref="D112" r:id="rId201"/>
+    <hyperlink ref="A113" r:id="rId202"/>
+    <hyperlink ref="D113" r:id="rId203"/>
+    <hyperlink ref="A114" r:id="rId204"/>
+    <hyperlink ref="D114" r:id="rId205"/>
+    <hyperlink ref="A115" r:id="rId206"/>
+    <hyperlink ref="D115" r:id="rId207"/>
+    <hyperlink ref="A116" r:id="rId208"/>
+    <hyperlink ref="D116" r:id="rId209"/>
+    <hyperlink ref="A117" r:id="rId210"/>
+    <hyperlink ref="D117" r:id="rId211"/>
+    <hyperlink ref="A118" r:id="rId212"/>
+    <hyperlink ref="D118" r:id="rId213"/>
+    <hyperlink ref="A119" r:id="rId214"/>
+    <hyperlink ref="A120" r:id="rId215"/>
+    <hyperlink ref="D120" r:id="rId216"/>
+    <hyperlink ref="A121" r:id="rId217"/>
+    <hyperlink ref="A122" r:id="rId218"/>
+    <hyperlink ref="A123" r:id="rId219"/>
+    <hyperlink ref="D123" r:id="rId220"/>
+    <hyperlink ref="A124" r:id="rId221"/>
+    <hyperlink ref="D124" r:id="rId222"/>
+    <hyperlink ref="A125" r:id="rId223"/>
+    <hyperlink ref="D125" r:id="rId224"/>
+    <hyperlink ref="A126" r:id="rId225"/>
+    <hyperlink ref="D126" r:id="rId226"/>
+    <hyperlink ref="A127" r:id="rId227"/>
+    <hyperlink ref="D127" r:id="rId228"/>
+    <hyperlink ref="A128" r:id="rId229"/>
+    <hyperlink ref="D128" r:id="rId230"/>
+    <hyperlink ref="A129" r:id="rId231"/>
+    <hyperlink ref="D129" r:id="rId232"/>
+    <hyperlink ref="A130" r:id="rId233"/>
+    <hyperlink ref="D130" r:id="rId234"/>
+    <hyperlink ref="A131" r:id="rId235"/>
+    <hyperlink ref="D131" r:id="rId236"/>
+    <hyperlink ref="A132" r:id="rId237"/>
+    <hyperlink ref="A133" r:id="rId238"/>
+    <hyperlink ref="D133" r:id="rId239"/>
+    <hyperlink ref="A134" r:id="rId240"/>
+    <hyperlink ref="D134" r:id="rId241"/>
+    <hyperlink ref="A135" r:id="rId242"/>
+    <hyperlink ref="D135" r:id="rId243"/>
+    <hyperlink ref="A136" r:id="rId244"/>
+    <hyperlink ref="D136" r:id="rId245"/>
+    <hyperlink ref="A137" r:id="rId246"/>
+    <hyperlink ref="D137" r:id="rId247"/>
+    <hyperlink ref="A138" r:id="rId248"/>
+    <hyperlink ref="D138" r:id="rId249"/>
+    <hyperlink ref="A139" r:id="rId250"/>
+    <hyperlink ref="D139" r:id="rId251"/>
+    <hyperlink ref="A140" r:id="rId252"/>
+    <hyperlink ref="D140" r:id="rId253"/>
+    <hyperlink ref="A141" r:id="rId254"/>
+    <hyperlink ref="D141" r:id="rId255"/>
+    <hyperlink ref="A142" r:id="rId256"/>
+    <hyperlink ref="D142" r:id="rId257"/>
+    <hyperlink ref="A143" r:id="rId258"/>
+    <hyperlink ref="D143" r:id="rId259"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
